--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_BaoCao_KHNam_DonVi_PheDuyet_CTCT.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_BaoCao_KHNam_DonVi_PheDuyet_CTCT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,9 +18,10 @@
   <definedNames>
     <definedName name="__dv__">#REF!</definedName>
     <definedName name="__Items__">Sheet1!$A$12:$L$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$7:$10</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -260,6 +261,9 @@
   </si>
   <si>
     <t>&lt;#Ten3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#VonBoTri5NamSum&gt;)&gt;</t>
   </si>
 </sst>
 </file>
@@ -596,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -691,95 +695,101 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1067,66 +1077,66 @@
   </sheetPr>
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1150,39 +1160,39 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
       <c r="L5" s="35"/>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="61" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="52" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="34"/>
@@ -1190,63 +1200,63 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="47" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="60"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="61" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="60"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="64"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="24" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="60"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -1301,7 +1311,9 @@
         <v>61</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="H11" s="71" t="s">
+        <v>76</v>
+      </c>
       <c r="I11" s="39" t="s">
         <v>62</v>
       </c>
@@ -1324,7 +1336,7 @@
       <c r="C12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="21" t="s">
@@ -1334,7 +1346,7 @@
         <v>41</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="70" t="s">
         <v>65</v>
       </c>
       <c r="I12" s="21" t="s">
@@ -1385,92 +1397,110 @@
       <c r="R14" s="22"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
       <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="42" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42" t="s">
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
       <c r="L18" s="38"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40" t="s">
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="H5:K5"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="A17:D17"/>
@@ -1484,30 +1514,12 @@
     <mergeCell ref="I6:I9"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="K6:K9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.511811023622047" bottom="0.511811023622047" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="82" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;RTrang &amp;P</oddHeader>
+    <oddHeader>&amp;RTrang: &amp;P/&amp;N</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
